--- a/biology/Botanique/Dianella_ensifolia/Dianella_ensifolia.xlsx
+++ b/biology/Botanique/Dianella_ensifolia/Dianella_ensifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dianella ensifolia est une espèce de plantes à fleurs de la famille des liliacées selon la classification classique de Cronquist (1981)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dianella ensifolia est une espèce de plantes à fleurs de la famille des liliacées selon la classification classique de Cronquist (1981).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée de 20 à 80 centimètres de haut.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Madagascar, Inde, Asie du Sud Est, Chine, Australie, Iles du Pacifique.
 </t>
@@ -573,7 +589,9 @@
           <t>Synonymie[2]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Anthericum adenanthera G. Forst.
 Dianella ensata (Thunb. &amp; Dallm.) R. Henderson
@@ -583,7 +601,7 @@
 Dianella nemorosa Lam.
 Dianella odorata Blume
 Dianella sandwicensis Hook. &amp; Arn.
-Dracaena ensata Thunb. &amp; Dallm[3].
+Dracaena ensata Thunb. &amp; Dallm.
 Dracaena ensifolia L.
 Phalangium adenanthera Poir.
 Walleria paniculata Fritsch</t>
@@ -614,7 +632,9 @@
           <t>Détails</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Dianella ensifolia en pot, Jardin botanique de la reine Sirikit, Thaïlande
